--- a/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C5F48-AB0C-48BB-90C9-DE1E52E71735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50232FC3-E8CF-477B-BD80-E7A1AF93E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,16 +206,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>未ログイン状態</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン状態</t>
     <rPh sb="4" eb="6">
       <t>ジョウタイ</t>
@@ -409,6 +399,28 @@
     <t>メニュー画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未ログイン状態、（url直打ちはログイン前メニュー画面を開く）</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -751,50 +763,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -805,28 +811,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,29 +826,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1215,7 +1227,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M2"/>
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1231,15 +1243,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
@@ -1264,23 +1276,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1293,48 +1305,48 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1343,20 +1355,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1366,153 +1378,153 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="40"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1526,69 +1538,69 @@
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="14" t="s">
@@ -1597,20 +1609,20 @@
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="43" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="14" t="s">
         <v>13</v>
       </c>
@@ -1620,153 +1632,153 @@
       <c r="O16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="44"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>4</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>5</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="40"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1780,25 +1792,25 @@
       <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="C23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
@@ -1807,25 +1819,25 @@
       <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
+      <c r="C24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
@@ -1834,39 +1846,66 @@
       <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:Q15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="H9:L9"/>
@@ -1883,44 +1922,17 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:Q15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50232FC3-E8CF-477B-BD80-E7A1AF93E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F9DA62-3510-4D61-86BD-0510DDB4056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>作成者</t>
   </si>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン状態</t>
     <rPh sb="4" eb="6">
       <t>ジョウタイ</t>
@@ -213,17 +209,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「メニュー」と表示されている</t>
-    <rPh sb="0" eb="1">
-      <t>ショセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「メニュー」と表示されている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>body</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -242,29 +227,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「文具/雑貨販売システム」と表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>ブング</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログイン」リンクが表示されている</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン」を押下</t>
     <rPh sb="7" eb="9">
       <t>オウカ</t>
@@ -286,35 +248,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「Fullness Stationery社」と表示されている</t>
-    <rPh sb="20" eb="21">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品情報メンテナンス」、「商品カテゴリ登録」、「アカウント登録」リンクが表示されている</t>
-    <rPh sb="1" eb="5">
-      <t>ショウヒンジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品情報メンテナンス」を押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンジョウホウ</t>
@@ -421,6 +354,96 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
+・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」、「商品カテゴリ登録」、「購入履歴検索」、「アカウント登録」リンクが表示されている</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「メニュー画面」と表示されていること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「メニュー」と表示されていること</t>
+    <rPh sb="0" eb="1">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文具/雑貨販売システム」と表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」リンクが表示されていること</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されていること</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -710,7 +733,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -763,10 +786,91 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -778,21 +882,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -802,77 +891,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1226,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1236,32 +1262,33 @@
     <col min="2" max="2" width="17.1796875" style="5" customWidth="1"/>
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
-    <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
+    <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="47.90625" style="4" customWidth="1"/>
     <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
     <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,27 +1299,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1304,49 +1331,51 @@
       </c>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:17" ht="28.5" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:17" ht="33.5" customHeight="1">
+      <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1355,20 +1384,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1378,153 +1407,153 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="C8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="C9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="C11" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1538,69 +1567,71 @@
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="C12" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
-    </row>
-    <row r="15" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A15" s="39" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+    </row>
+    <row r="15" spans="1:17" ht="40" customHeight="1">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="14" t="s">
@@ -1609,20 +1640,20 @@
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="34" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
       <c r="M16" s="14" t="s">
         <v>13</v>
       </c>
@@ -1632,153 +1663,153 @@
       <c r="O16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="34" t="s">
+      <c r="P16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="36"/>
+      <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
+      <c r="C19" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>4</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
+      <c r="C20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="27"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>5</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
+      <c r="C22" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1792,25 +1823,25 @@
       <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="C23" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
@@ -1819,25 +1850,25 @@
       <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="C24" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
@@ -1846,33 +1877,72 @@
       <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="C25" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C20:G21"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:Q15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -1889,50 +1959,11 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:Q15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C20:G21"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F9DA62-3510-4D61-86BD-0510DDB4056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4594FD87-9E2F-408F-8D24-3513F37848E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>作成者</t>
   </si>
@@ -443,6 +443,39 @@
       <t>シャ</t>
     </rPh>
     <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されていること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品メンテナンス情報」「商品カテゴリ登録」「アカウント登録」リンクが表示されていないこと</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンが表示されていないこと</t>
+    <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -518,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -727,13 +760,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,47 +837,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -843,7 +867,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,41 +900,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -899,6 +914,51 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1250,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1270,25 +1330,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,23 +1363,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1332,50 +1392,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1384,20 +1444,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1407,468 +1467,456 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="32" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="32" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="32" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-    </row>
-    <row r="11" spans="1:17" ht="11">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.5" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
+    <row r="12" spans="1:17" ht="18.5" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-    </row>
-    <row r="14" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" ht="11">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="16" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A16" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="53" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
-    </row>
-    <row r="15" spans="1:17" ht="40" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+    </row>
+    <row r="17" spans="1:17" ht="40" customHeight="1">
+      <c r="A17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="55" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="43" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
-    </row>
-    <row r="16" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="38"/>
-    </row>
-    <row r="17" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>16</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
-      <c r="H17" s="41" t="s">
-        <v>41</v>
-      </c>
+      <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+      <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A18" s="6">
-        <v>2</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+      <c r="A18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="36"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
-        <v>3</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
-    </row>
-    <row r="20" spans="1:17" ht="11">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
-        <v>4</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="36"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
+      <c r="C21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="36"/>
-    </row>
-    <row r="22" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A22" s="6"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
+    </row>
+    <row r="22" spans="1:17" ht="11">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
+      <c r="C22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A24" s="6">
-        <v>5</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
@@ -1877,72 +1925,92 @@
       <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="C25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A26" s="6">
+        <v>5</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A27" s="6">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
+  <mergeCells count="67">
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C20:G21"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:Q15"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C9:G12"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -1958,12 +2026,48 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4594FD87-9E2F-408F-8D24-3513F37848E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDF2AD8-ADBD-44CE-9F93-07A9A4524B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>作成者</t>
   </si>
@@ -477,6 +477,17 @@
     <t>「ログアウト」ボタンが表示されていないこと</t>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -784,7 +795,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,54 +839,126 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -885,80 +968,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1312,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:L12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1324,31 +1341,32 @@
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="47.90625" style="4" customWidth="1"/>
-    <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="59" customWidth="1"/>
+    <col min="14" max="15" width="8.453125" style="4" customWidth="1"/>
     <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,23 +1381,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1389,53 +1407,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1444,21 +1464,21 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="58" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="14" t="s">
@@ -1467,87 +1487,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
@@ -1561,83 +1599,107 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" ht="18.5" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="18.5" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" ht="11">
       <c r="A13" s="6"/>
@@ -1649,18 +1711,24 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="6">
@@ -1669,71 +1737,77 @@
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="1:17" ht="40" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="14" t="s">
@@ -1742,21 +1816,21 @@
       <c r="B18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="34" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="14" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="58" t="s">
         <v>13</v>
       </c>
       <c r="N18" s="14" t="s">
@@ -1765,87 +1839,105 @@
       <c r="O18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="36"/>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="18" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>3</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="23" t="s">
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="50"/>
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
@@ -1859,41 +1951,53 @@
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="50"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>5</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="23" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6"/>
@@ -1905,18 +2009,24 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="60">
+        <v>45503</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
@@ -1925,25 +2035,25 @@
       <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
@@ -1952,25 +2062,25 @@
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="A27" s="6">
@@ -1979,37 +2089,68 @@
       <c r="B27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C9:G12"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
@@ -2026,48 +2167,17 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C9:G12"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP001メニュー画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDF2AD8-ADBD-44CE-9F93-07A9A4524B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD727316-3E96-4C25-B691-E76D844CD971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>作成者</t>
   </si>
@@ -488,6 +488,13 @@
     <t>高良</t>
     <rPh sb="0" eb="2">
       <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -845,6 +852,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -854,14 +885,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -872,21 +948,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,60 +982,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1341,32 +1348,32 @@
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="47.90625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="59" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="18" customWidth="1"/>
     <col min="14" max="15" width="8.453125" style="4" customWidth="1"/>
     <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,23 +1388,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1412,50 +1419,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="48"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1464,21 +1471,21 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="29" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="58" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="14" t="s">
@@ -1487,33 +1494,33 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="51"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="60">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="19">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1522,29 +1529,29 @@
       <c r="O6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="54" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="60">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="19">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1553,29 +1560,29 @@
       <c r="O7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="17" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="60">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="19">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1584,29 +1591,29 @@
       <c r="O8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="17" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="60">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="19">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1615,27 +1622,27 @@
       <c r="O9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="17" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="60">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="19">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1644,25 +1651,25 @@
       <c r="O10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" spans="1:17" ht="18.5" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="17" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="60">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="19">
         <v>45503</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1677,19 +1684,19 @@
     <row r="12" spans="1:17" ht="18.5" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="17" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="60">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="19">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1704,21 +1711,21 @@
     <row r="13" spans="1:17" ht="11">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="17" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="60">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="19">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -1737,21 +1744,21 @@
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="60">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="19">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -1760,54 +1767,54 @@
       <c r="O14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="48"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="44"/>
     </row>
     <row r="17" spans="1:17" ht="40" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="14" t="s">
@@ -1816,21 +1823,21 @@
       <c r="B18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="29" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="58" t="s">
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="N18" s="14" t="s">
@@ -1839,33 +1846,33 @@
       <c r="O18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="29" t="s">
+      <c r="P18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="51"/>
+      <c r="Q18" s="38"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="60">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="19">
         <v>45503</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -1874,29 +1881,29 @@
       <c r="O19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="43" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="54" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="60">
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="19">
         <v>45503</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -1905,29 +1912,29 @@
       <c r="O20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>3</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="17" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="60">
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="19">
         <v>45503</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -1936,29 +1943,29 @@
       <c r="O21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="50"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="17" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="60">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="19">
         <v>45503</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -1967,27 +1974,27 @@
       <c r="O22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="50"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>5</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="17" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="60">
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="19">
         <v>45503</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -1996,27 +2003,27 @@
       <c r="O23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="50"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="17" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="60">
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="19">
         <v>45503</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2035,25 +2042,31 @@
       <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="19">
+        <v>45505</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
@@ -2062,25 +2075,31 @@
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="19">
+        <v>45505</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="A27" s="6">
@@ -2089,39 +2108,74 @@
       <c r="B27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="19">
+        <v>45505</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C9:G12"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="H9:L9"/>
@@ -2137,47 +2191,18 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C9:G12"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
